--- a/filename/OLD_DEPLOY/2023-03-10/list_deploy.xlsx
+++ b/filename/OLD_DEPLOY/2023-03-10/list_deploy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Document\Coding\Project\deploy_scb\filename\OLD_DEPLOY\2023-03-10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1B28693-91BE-43E8-948D-CF04F660E03B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA4ADA48-F748-4906-A255-1AB408DD3546}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{0DBDD665-BEBF-494D-B7B4-F646AE6AE311}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6816" uniqueCount="3409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6820" uniqueCount="3411">
   <si>
     <t>DEL_BISDT_ESN_CUST_AUM_D</t>
   </si>
@@ -10265,6 +10265,12 @@
   </si>
   <si>
     <t>VTXEDW_VUTM_SIC_CODE_01</t>
+  </si>
+  <si>
+    <t>BU</t>
+  </si>
+  <si>
+    <t>EDM</t>
   </si>
 </sst>
 </file>
@@ -21577,10 +21583,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B28BF25-9F95-4476-A149-3EEE2097CB77}">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21711,7 +21717,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>1382</v>
+        <v>3409</v>
       </c>
       <c r="B16" t="s">
         <v>1365</v>
@@ -21719,7 +21725,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>1383</v>
+        <v>3410</v>
       </c>
       <c r="B17" t="s">
         <v>1365</v>
@@ -21727,7 +21733,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
       <c r="B18" t="s">
         <v>1365</v>
@@ -21735,23 +21741,23 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="B19" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="B20" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
       <c r="B21" t="s">
         <v>1364</v>
@@ -21759,7 +21765,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
       <c r="B22" t="s">
         <v>1364</v>
@@ -21767,9 +21773,25 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>1387</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>1388</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>1389</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B25" t="s">
         <v>1364</v>
       </c>
     </row>
